--- a/tests/A01_pixell_test_plan_client.xlsx
+++ b/tests/A01_pixell_test_plan_client.xlsx
@@ -1,156 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rrcca-my.sharepoint.com/personal/karanveersingh7_rrc_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasha\OneDrive\Desktop\ISD_Assignment3\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF214A03-5711-46AF-A8FB-3937D17A6B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8D9DD509-55B1-455D-8036-16809AD15960}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Laurie Cutrone</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{2226E156-6D9C-4BD2-9E83-E8BB8514281B}">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>Student Name</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{2B16E308-A1AB-44EA-9D6D-419919C54559}">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>Name of the class containing the methods to which the unit test plan applies.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{3AFD6792-4858-4432-8D1A-2CB895E262E1}">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>A unique identifier for each test case.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{E95CB908-567C-490A-A2E2-01BADA61CAE4}">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>Name of the method being tested.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{8F1D4BE8-86F7-4F2B-9CF2-29A2362B0A96}">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>A brief description of what the test case is intended to verify.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{81A699C9-D13C-46A8-BDED-9E9372CFC271}">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>Any requirements or conditions that must be met before the test is executed.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{A9B43634-DF5E-47A8-B694-39F3725B8514}">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
+            <rFont val="Tahoma"/>
+            <b val="1"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>Laurie Cutrone:</t>
         </r>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
-          <t xml:space="preserve">
-Inputs required for the test, including both valid and invalid data to test how the unit handles edge cases.</t>
+          <t>_x000A_Inputs required for the test, including both valid and invalid data to test how the unit handles edge cases.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{CACC1002-2768-4B77-8035-B63564EBC973}">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
+            <rFont val="Tahoma"/>
+            <color indexed="81"/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <scheme val="none"/>
           </rPr>
           <t>The outcome that should result from the test case if the unit is functioning correctly.</t>
         </r>
@@ -183,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Software Development Team - Unit Test Plan</t>
   </si>
@@ -191,6 +172,9 @@
     <t>Developer:</t>
   </si>
   <si>
+    <t>Jashan</t>
+  </si>
+  <si>
     <t>Class Name:</t>
   </si>
   <si>
@@ -221,158 +205,158 @@
     <t>Attributes set to input values.</t>
   </si>
   <si>
+    <t>Client number is valid, first name is non-empty, last is non-empty, email is valid.</t>
+  </si>
+  <si>
+    <t>Client_number = 1010, first_name = "Tony", last_name = "Stark", email = "tonystark@pixell.com"</t>
+  </si>
+  <si>
+    <t>Attributes are set to input values.</t>
+  </si>
+  <si>
     <t>Exception raised when invalid client number.</t>
   </si>
   <si>
+    <t>Client number is not an integer.</t>
+  </si>
+  <si>
+    <t>invalid_client_number = "invalid", first_name = "Tony", last_name = "Stark", email = "tonystark@pixell.com"</t>
+  </si>
+  <si>
+    <t>Raises ValueError with message "Client number must be an integer."</t>
+  </si>
+  <si>
     <t>Exception raised when blank first_name.</t>
   </si>
   <si>
+    <t>First name is blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client_number = 1010
+        first_name = ""
+        last_name = "Stark"
+        email ="tonystark@pixell.com"</t>
+  </si>
+  <si>
+    <t>Raises ValueError with message "First name cannot be blank"</t>
+  </si>
+  <si>
     <t>Exception raised when blank last_name.</t>
   </si>
   <si>
+    <t>Last name is blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client_number = 1010
+        first_name = "Tony"
+        last_name = ""
+        email ="tonystark@pixell.com"</t>
+  </si>
+  <si>
+    <t>Raises ValueError with message "Last name cannot be blank"</t>
+  </si>
+  <si>
     <t>Email address set to default value when invalid.</t>
   </si>
   <si>
+    <t>Email is not valid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client_number = 1010
+        first_name = "Tony"
+        last_name = "Stark"
+        email ="invalid-email"</t>
+  </si>
+  <si>
+    <t>Email is set to default "email@pixell-river.com"</t>
+  </si>
+  <si>
     <t>client_number</t>
   </si>
   <si>
     <t>Returns client_number attribute.</t>
   </si>
   <si>
+    <t>Get Client Number</t>
+  </si>
+  <si>
+    <t>Client_number = 1010</t>
+  </si>
+  <si>
+    <t>Returns client number 1010</t>
+  </si>
+  <si>
     <t>first_name</t>
   </si>
   <si>
     <t>Returns first_name attribute.</t>
   </si>
   <si>
+    <t>First name is set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        first_name = "Tony"</t>
+  </si>
+  <si>
+    <t>Returns first name "Tony".</t>
+  </si>
+  <si>
     <t>last_name</t>
   </si>
   <si>
     <t>Returns last_name attribute.</t>
   </si>
   <si>
+    <t>Last name is set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        last_name = "Stark"</t>
+  </si>
+  <si>
+    <t>Returns last name "Stark"</t>
+  </si>
+  <si>
     <t>email_address</t>
   </si>
   <si>
     <t>Returns email_address attribute.</t>
   </si>
   <si>
+    <t>Email address is valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        email ="tonystark@pixell.com"</t>
+  </si>
+  <si>
+    <t>Returns email "tonystark@pixell.com"</t>
+  </si>
+  <si>
     <t>__str__</t>
   </si>
   <si>
     <t>Returns string in expected format.</t>
   </si>
   <si>
-    <t>Add more rows as necessary</t>
-  </si>
-  <si>
-    <t>Client number is valid, first name is non-empty, last is non-empty, email is valid.</t>
-  </si>
-  <si>
-    <t>Client_number = 1010, first_name = "Tony", last_name = "Stark", email = "tonystark@pixell.com"</t>
-  </si>
-  <si>
-    <t>Attributes are set to input values.</t>
-  </si>
-  <si>
-    <t>Client number is not an integer.</t>
-  </si>
-  <si>
-    <t>invalid_client_number = "invalid", first_name = "Tony", last_name = "Stark", email = "tonystark@pixell.com"</t>
-  </si>
-  <si>
-    <t>Raises ValueError with message "Client number must be an integer."</t>
-  </si>
-  <si>
-    <t>First name is blank</t>
-  </si>
-  <si>
-    <t>Last name is blank</t>
-  </si>
-  <si>
-    <t>Email is not valid.</t>
-  </si>
-  <si>
-    <t>Get Client Number</t>
-  </si>
-  <si>
-    <t>First name is set.</t>
-  </si>
-  <si>
-    <t>Last name is set.</t>
-  </si>
-  <si>
-    <t>Email address is valid</t>
-  </si>
-  <si>
     <t>Client attributes are set</t>
   </si>
   <si>
-    <t>Client_number = 1010
+    <t xml:space="preserve">Client_number = 1010
         first_name = "Tony"
         last_name = "Stark"
         email ="tonystark@pixell.com"</t>
   </si>
   <si>
-    <t>Client_number = 1010
-        first_name = ""
-        last_name = "Stark"
-        email ="tonystark@pixell.com"</t>
-  </si>
-  <si>
-    <t>Client_number = 1010
-        first_name = "Tony"
-        last_name = ""
-        email ="tonystark@pixell.com"</t>
-  </si>
-  <si>
-    <t>Raises ValueError with message "First name cannot be blank"</t>
-  </si>
-  <si>
-    <t>Raises ValueError with message "Last name cannot be blank"</t>
-  </si>
-  <si>
-    <t>Client_number = 1010
-        first_name = "Tony"
-        last_name = "Stark"
-        email ="invalid-email"</t>
-  </si>
-  <si>
-    <t>Email is set to default "email@pixell-river.com"</t>
-  </si>
-  <si>
-    <t>Client_number = 1010</t>
-  </si>
-  <si>
-    <t>Returns client number 1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        first_name = "Tony"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        last_name = "Stark"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        email ="tonystark@pixell.com"</t>
-  </si>
-  <si>
-    <t>Returns first name "Tony".</t>
-  </si>
-  <si>
-    <t>Returns last name "Stark"</t>
-  </si>
-  <si>
-    <t>Returns email "tonystark@pixell.com"</t>
-  </si>
-  <si>
-    <t>returns string "Stark, Tony  [1010] - tonystark@pixell.com"</t>
+    <t xml:space="preserve">returns string "Stark, Tony  [1010] - tonystark@pixell.com"</t>
+  </si>
+  <si>
+    <t>Add more rows as necessary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,31 +366,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,7 +376,20 @@
       <sz val="72"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,16 +397,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="5">
@@ -443,14 +420,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor theme="4"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor theme="0" tint="-0.149998474074526"/>
       </patternFill>
     </fill>
     <fill>
@@ -461,149 +438,118 @@
     </fill>
   </fills>
   <borders count="12">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -611,62 +557,74 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -699,174 +657,22 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B0B8C9F-A34D-46F3-9066-19FDAF76B033}" name="Table1" displayName="Table1" ref="B6:G28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B6:G28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B4BB882C-2019-4F87-8900-426FA9A11FFB}" name="Test Case ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1904C92F-9639-4229-AA4E-4C4DEAF21EEE}" name="Method Being Tested" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4E480EB6-99FB-4F51-98B5-D5BE13327E8C}" name="Condition Being Tested" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5381561B-09C5-439D-999E-CD8E013F9561}" name="Preconditions" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{645704DE-22F5-4239-BEB6-F4252A1F2823}" name="Method Inputs" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{101F480E-86C3-4E60-AA1E-2FCAD389E35F}" name="Expected Result" dataDxfId="0"/>
+    <tableColumn id="1" name="Test Case ID" dataDxfId="2"/>
+    <tableColumn id="2" name="Method Being Tested" dataDxfId="3"/>
+    <tableColumn id="3" name="Condition Being Tested" dataDxfId="3"/>
+    <tableColumn id="4" name="Preconditions" dataDxfId="3"/>
+    <tableColumn id="5" name="Method Inputs" dataDxfId="3"/>
+    <tableColumn id="6" name="Expected Result" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -875,10 +681,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1047,6 +853,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1073,24 +880,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1151,438 +959,412 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADEBCC4-BB44-48CD-B9AB-1E2FD3EE0EEB}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="35.453125" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.72656" customWidth="1"/>
+    <col min="3" max="3" width="22.26953" customWidth="1"/>
+    <col min="4" max="4" width="32.72656" customWidth="1"/>
+    <col min="5" max="5" width="29.17969" customWidth="1"/>
+    <col min="6" max="6" width="35.45313" customWidth="1"/>
+    <col min="7" max="7" width="26.45313" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:7" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="2.15">
-      <c r="B2" s="2" t="e" vm="1">
+    <row r="2" thickBot="1" ht="73.15" customHeight="1">
+      <c r="B2" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" thickBot="1" ht="15.75">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" thickBot="1" ht="15.75">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9">
+      <c r="G6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="66" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="66" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="66" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="66" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="66" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="57.5" customHeight="1">
+      <c r="B12" s="17">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="49" customHeight="1">
+      <c r="B13" s="14">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" ht="56.5" customHeight="1">
+      <c r="B14" s="17">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1">
+      <c r="B15" s="17">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="72" customHeight="1">
+      <c r="B16" s="14">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" ht="31.15" customHeight="1">
+      <c r="B17" s="17">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" ht="31.15" customHeight="1">
+      <c r="B18" s="17">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="11">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" ht="31.15" customHeight="1">
+      <c r="B19" s="14">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" ht="31.15" customHeight="1">
+      <c r="B20" s="17">
         <v>14</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" ht="31.15" customHeight="1">
+      <c r="B21" s="17">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" ht="31.15" customHeight="1">
+      <c r="B22" s="14">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" ht="31.15" customHeight="1">
+      <c r="B23" s="17">
         <v>17</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" ht="31.15" customHeight="1">
+      <c r="B24" s="17">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" ht="31.15" customHeight="1">
+      <c r="B25" s="14">
         <v>19</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" ht="31.15" customHeight="1">
+      <c r="B26" s="17">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" ht="31.15" customHeight="1">
+      <c r="B27" s="17">
         <v>21</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="11">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" ht="31.15" customHeight="1">
+      <c r="B28" s="14">
         <v>22</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="11">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="11">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="11">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="11">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="11">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="11">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
-        <v>19</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="11">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="11">
-        <v>21</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="30">
       <c r="B30" s="19" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -1597,7 +1379,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B30:G30"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -1606,6 +1387,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="89554b47-2552-4b86-8593-c795689c0073" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BE1E6CA44A20B4E831DF318AD475E14" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b3a412bdb16e09277d0befc7f04846">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="89554b47-2552-4b86-8593-c795689c0073" xmlns:ns4="aeff4388-0e26-4e3c-88c8-6ffddba0a797" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28028d0dfdec3718c79b693512d4d155" ns3:_="" ns4:_="">
     <xsd:import namespace="89554b47-2552-4b86-8593-c795689c0073"/>
@@ -1832,38 +1630,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="89554b47-2552-4b86-8593-c795689c0073" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9E076F-C1D6-4119-982B-3D89F400B34D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAB35B9B-F1FD-4D47-8A2E-1E78DC790A18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="89554b47-2552-4b86-8593-c795689c0073"/>
-    <ds:schemaRef ds:uri="aeff4388-0e26-4e3c-88c8-6ffddba0a797"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1871,24 +1641,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC172D8B-41EF-413B-863B-438DD7EB895B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAB35B9B-F1FD-4D47-8A2E-1E78DC790A18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA9E076F-C1D6-4119-982B-3D89F400B34D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="89554b47-2552-4b86-8593-c795689c0073"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="aeff4388-0e26-4e3c-88c8-6ffddba0a797"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/vsto/samples"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>